--- a/data/示例数据.xlsx
+++ b/data/示例数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\others\wrBook\KNN-MoranI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\others\wrBook\MoranI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703853DE-FFE1-4C09-8CC4-BADF8EBF07A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FD2B5-BAE2-40DC-B6D3-19A0D5B8A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>质心X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,9 +589,10 @@
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="20.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -618,8 +626,11 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -655,8 +666,11 @@
         <f>F2/J2</f>
         <v>1.1407853462482132</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L2" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -692,8 +706,11 @@
         <f t="shared" ref="K3:K39" si="1">J3/F3</f>
         <v>1.2509997225416414</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L3" s="8">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -729,8 +746,11 @@
         <f t="shared" si="1"/>
         <v>1.1672404766867459</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L4" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -766,8 +786,11 @@
         <f t="shared" si="1"/>
         <v>0.77413560531376591</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L5" s="8">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -803,8 +826,11 @@
         <f t="shared" si="1"/>
         <v>1.5004232209698349</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L6" s="8">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -840,8 +866,11 @@
         <f t="shared" si="1"/>
         <v>1.2093838984480929</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L7" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -877,8 +906,11 @@
         <f t="shared" si="1"/>
         <v>1.1197695167650581</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L8" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -914,8 +946,11 @@
         <f t="shared" si="1"/>
         <v>1.1450305189918299</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L9" s="8">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -951,8 +986,11 @@
         <f t="shared" si="1"/>
         <v>1.1260217657702081</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -988,8 +1026,11 @@
         <f t="shared" si="1"/>
         <v>0.71531478328726028</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L11" s="8">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1025,8 +1066,11 @@
         <f t="shared" si="1"/>
         <v>0.82491780127880576</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L12" s="8">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1062,8 +1106,11 @@
         <f t="shared" si="1"/>
         <v>0.64832910918586606</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L13" s="8">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1099,8 +1146,11 @@
         <f t="shared" si="1"/>
         <v>0.74016504446417242</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L14" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1136,8 +1186,11 @@
         <f t="shared" si="1"/>
         <v>0.69738710554788474</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L15" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1173,8 +1226,11 @@
         <f t="shared" si="1"/>
         <v>0.85675336093301979</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L16" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1210,8 +1266,11 @@
         <f t="shared" si="1"/>
         <v>0.89173046461395111</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L17" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1247,8 +1306,11 @@
         <f t="shared" si="1"/>
         <v>0.91266761107210914</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L18" s="8">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1284,8 +1346,11 @@
         <f t="shared" si="1"/>
         <v>1.132980361997812</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L19" s="8">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1322,8 +1387,11 @@
         <f t="shared" si="1"/>
         <v>0.91773070130616563</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L20" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1359,8 +1427,11 @@
         <f t="shared" si="1"/>
         <v>1.0022258537257618</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L21" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1396,8 +1467,11 @@
         <f t="shared" si="1"/>
         <v>0.98061277419850834</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L22" s="8">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1433,8 +1507,11 @@
         <f t="shared" si="1"/>
         <v>0.82484015193371196</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L23" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1470,8 +1547,11 @@
         <f t="shared" si="1"/>
         <v>1.1203705925636767</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L24" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1507,8 +1587,11 @@
         <f t="shared" si="1"/>
         <v>0.93429931636312247</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L25" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1544,8 +1627,11 @@
         <f t="shared" si="1"/>
         <v>1.2026674388326428</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L26" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1581,8 +1667,11 @@
         <f t="shared" si="1"/>
         <v>0.64939388192999259</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L27" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1707,11 @@
         <f t="shared" si="1"/>
         <v>0.63231578779797804</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L28" s="8">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1655,8 +1747,11 @@
         <f t="shared" si="1"/>
         <v>2.1334826535779254</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L29" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1692,8 +1787,11 @@
         <f t="shared" si="1"/>
         <v>1.5160410689303583</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L30" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1729,8 +1827,11 @@
         <f t="shared" si="1"/>
         <v>1.3235321874290611</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L31" s="8">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1767,8 +1868,11 @@
         <f t="shared" si="1"/>
         <v>1.15039235481014</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L32" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1804,8 +1908,11 @@
         <f t="shared" si="1"/>
         <v>0.86654668206561647</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L33" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1842,8 +1949,11 @@
         <f t="shared" si="1"/>
         <v>0.95495651717746355</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L34" s="8">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1879,8 +1989,11 @@
         <f t="shared" si="1"/>
         <v>1.0480751804852499</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L35" s="8">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1916,8 +2029,11 @@
         <f t="shared" si="1"/>
         <v>0.12907202197118628</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L36" s="8">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1953,8 +2069,11 @@
         <f t="shared" si="1"/>
         <v>1.0579853151553802</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L37" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1990,8 +2109,11 @@
         <f t="shared" si="1"/>
         <v>1.3028588933525946</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L38" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2027,6 +2149,60 @@
         <f t="shared" si="1"/>
         <v>0.64018278356565195</v>
       </c>
+      <c r="L39" s="8">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
